--- a/1- PM/review tracker.xlsx
+++ b/1- PM/review tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\1- PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beshoy Sameh\Documents\GitHub\Car-Purchasing-App\1- PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAE1C3A-07C3-4B84-80F3-A8305A10B153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9950C8D-2AB7-4A19-8552-149AB52F1883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>review TRACKER</t>
   </si>
@@ -162,6 +162,25 @@
   </si>
   <si>
     <t>1. Add id to the alternative flows.                                                  2. Add functional reqirments to "View car list".                       3. Edit the output for delete and reserved car features.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review </t>
+  </si>
+  <si>
+    <t>Each task from the team , coach and Eng/ moahmed hassan should has review.</t>
+  </si>
+  <si>
+    <t>RTM</t>
+  </si>
+  <si>
+    <t>1. update all use cases.
+2. Add alternative  flows from srs.</t>
+  </si>
+  <si>
+    <t>Add ids to be reahable.</t>
+  </si>
+  <si>
+    <t>change "manage" relation to be add/delete.</t>
   </si>
 </sst>
 </file>
@@ -532,15 +551,15 @@
     <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,8 +927,8 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -933,13 +952,13 @@
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="49"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
@@ -1027,7 +1046,7 @@
       </c>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
@@ -1055,7 +1074,7 @@
       </c>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" ht="51">
+    <row r="10" spans="1:7" ht="60">
       <c r="A10" s="36"/>
       <c r="B10" s="36" t="s">
         <v>18</v>
@@ -1074,7 +1093,7 @@
       </c>
       <c r="G10" s="38"/>
     </row>
-    <row r="11" spans="1:7" ht="38.25">
+    <row r="11" spans="1:7" ht="45">
       <c r="A11" s="32"/>
       <c r="B11" s="32" t="s">
         <v>14</v>
@@ -1093,7 +1112,7 @@
       </c>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
@@ -1202,7 +1221,7 @@
       <c r="B18" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="48" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="32" t="s">
@@ -1216,43 +1235,75 @@
       </c>
       <c r="G18" s="40"/>
     </row>
-    <row r="19" spans="1:7" ht="15">
+    <row r="19" spans="1:7" ht="48.75" customHeight="1">
       <c r="A19" s="32"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="40"/>
+      <c r="B19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="39">
+        <v>45082</v>
+      </c>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75">
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" s="32"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="40"/>
+      <c r="B20" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="39">
+        <v>45082</v>
+      </c>
       <c r="G20" s="40"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75">
+    <row r="21" spans="1:7" ht="22.5" customHeight="1">
       <c r="A21" s="32"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="40"/>
+      <c r="B21" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="F21" s="39">
+        <v>45082</v>
+      </c>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75">
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="32"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="40"/>
+      <c r="B22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="39">
+        <v>45082</v>
+      </c>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75">
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="32"/>
       <c r="B23" s="41"/>
       <c r="C23" s="42"/>
@@ -1261,7 +1312,7 @@
       <c r="F23" s="40"/>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75">
+    <row r="24" spans="1:7" ht="15">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -1270,7 +1321,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75">
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -1279,7 +1330,7 @@
       <c r="F25" s="40"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75">
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -1288,7 +1339,7 @@
       <c r="F26" s="40"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:7" ht="12.75">
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -1297,7 +1348,7 @@
       <c r="F27" s="40"/>
       <c r="G27" s="41"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75">
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -1306,7 +1357,7 @@
       <c r="F28" s="40"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="1:7" ht="12.75">
+    <row r="29" spans="1:7" ht="15">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
@@ -1315,7 +1366,7 @@
       <c r="F29" s="40"/>
       <c r="G29" s="41"/>
     </row>
-    <row r="30" spans="1:7" ht="12.75">
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -1324,7 +1375,7 @@
       <c r="F30" s="40"/>
       <c r="G30" s="41"/>
     </row>
-    <row r="31" spans="1:7" ht="12.75">
+    <row r="31" spans="1:7" ht="15">
       <c r="A31" s="41"/>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -1333,7 +1384,7 @@
       <c r="F31" s="40"/>
       <c r="G31" s="41"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75">
+    <row r="32" spans="1:7" ht="15">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -1342,7 +1393,7 @@
       <c r="F32" s="40"/>
       <c r="G32" s="41"/>
     </row>
-    <row r="33" spans="1:7" ht="12.75">
+    <row r="33" spans="1:7" ht="15">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -1351,7 +1402,7 @@
       <c r="F33" s="40"/>
       <c r="G33" s="41"/>
     </row>
-    <row r="34" spans="1:7" ht="12.75">
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -1360,7 +1411,7 @@
       <c r="F34" s="40"/>
       <c r="G34" s="41"/>
     </row>
-    <row r="35" spans="1:7" ht="12.75">
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -1369,7 +1420,7 @@
       <c r="F35" s="40"/>
       <c r="G35" s="41"/>
     </row>
-    <row r="36" spans="1:7" ht="12.75">
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -1378,7 +1429,7 @@
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
     </row>
-    <row r="37" spans="1:7" ht="12.75">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -1387,7 +1438,7 @@
       <c r="F37" s="40"/>
       <c r="G37" s="41"/>
     </row>
-    <row r="38" spans="1:7" ht="12.75">
+    <row r="38" spans="1:7" ht="15">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -1396,7 +1447,7 @@
       <c r="F38" s="40"/>
       <c r="G38" s="41"/>
     </row>
-    <row r="39" spans="1:7" ht="12.75" hidden="1">
+    <row r="39" spans="1:7" ht="15" hidden="1">
       <c r="A39" s="44"/>
       <c r="B39" s="44"/>
       <c r="C39" s="45"/>

--- a/1- PM/review tracker.xlsx
+++ b/1- PM/review tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beshoy Sameh\Documents\GitHub\Car-Purchasing-App\1- PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\1- PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9950C8D-2AB7-4A19-8552-149AB52F1883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7822CF-68E4-42F4-910A-A4D3D3DD5AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>review TRACKER</t>
   </si>
@@ -181,6 +181,13 @@
   </si>
   <si>
     <t>change "manage" relation to be add/delete.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Review </t>
+  </si>
+  <si>
+    <t>Change the prompt that appears to the user to 
+be an alert + handle the cancel button in the alert.</t>
   </si>
 </sst>
 </file>
@@ -243,7 +250,7 @@
       <name val="Open Sans"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +281,12 @@
         <bgColor rgb="FF980000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -412,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -560,6 +573,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,8 +943,8 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1046,7 +1062,7 @@
       </c>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" ht="12.75">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
@@ -1074,7 +1090,7 @@
       </c>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" ht="60">
+    <row r="10" spans="1:7" ht="51">
       <c r="A10" s="36"/>
       <c r="B10" s="36" t="s">
         <v>18</v>
@@ -1093,7 +1109,7 @@
       </c>
       <c r="G10" s="38"/>
     </row>
-    <row r="11" spans="1:7" ht="45">
+    <row r="11" spans="1:7" ht="38.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32" t="s">
         <v>14</v>
@@ -1112,7 +1128,7 @@
       </c>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" ht="15">
+    <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
@@ -1252,7 +1268,7 @@
       </c>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="30">
+    <row r="20" spans="1:7" ht="25.5">
       <c r="A20" s="32"/>
       <c r="B20" s="32" t="s">
         <v>40</v>
@@ -1286,7 +1302,7 @@
       </c>
       <c r="G21" s="41"/>
     </row>
-    <row r="22" spans="1:7" ht="15">
+    <row r="22" spans="1:7" ht="12.75">
       <c r="A22" s="32"/>
       <c r="B22" s="32" t="s">
         <v>23</v>
@@ -1303,16 +1319,26 @@
       </c>
       <c r="G22" s="41"/>
     </row>
-    <row r="23" spans="1:7" ht="15">
+    <row r="23" spans="1:7" ht="30">
       <c r="A23" s="32"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="40"/>
+      <c r="B23" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="52">
+        <v>45058</v>
+      </c>
       <c r="G23" s="41"/>
     </row>
-    <row r="24" spans="1:7" ht="15">
+    <row r="24" spans="1:7" ht="12.75">
       <c r="A24" s="41"/>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
@@ -1321,7 +1347,7 @@
       <c r="F24" s="40"/>
       <c r="G24" s="41"/>
     </row>
-    <row r="25" spans="1:7" ht="15">
+    <row r="25" spans="1:7" ht="12.75">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="42"/>
@@ -1330,7 +1356,7 @@
       <c r="F25" s="40"/>
       <c r="G25" s="41"/>
     </row>
-    <row r="26" spans="1:7" ht="15">
+    <row r="26" spans="1:7" ht="12.75">
       <c r="A26" s="41"/>
       <c r="B26" s="41"/>
       <c r="C26" s="42"/>
@@ -1339,7 +1365,7 @@
       <c r="F26" s="40"/>
       <c r="G26" s="41"/>
     </row>
-    <row r="27" spans="1:7" ht="15">
+    <row r="27" spans="1:7" ht="12.75">
       <c r="A27" s="41"/>
       <c r="B27" s="41"/>
       <c r="C27" s="42"/>
@@ -1348,7 +1374,7 @@
       <c r="F27" s="40"/>
       <c r="G27" s="41"/>
     </row>
-    <row r="28" spans="1:7" ht="15">
+    <row r="28" spans="1:7" ht="12.75">
       <c r="A28" s="41"/>
       <c r="B28" s="41"/>
       <c r="C28" s="42"/>
@@ -1357,7 +1383,7 @@
       <c r="F28" s="40"/>
       <c r="G28" s="41"/>
     </row>
-    <row r="29" spans="1:7" ht="15">
+    <row r="29" spans="1:7" ht="12.75">
       <c r="A29" s="41"/>
       <c r="B29" s="41"/>
       <c r="C29" s="42"/>
@@ -1366,7 +1392,7 @@
       <c r="F29" s="40"/>
       <c r="G29" s="41"/>
     </row>
-    <row r="30" spans="1:7" ht="15">
+    <row r="30" spans="1:7" ht="12.75">
       <c r="A30" s="41"/>
       <c r="B30" s="41"/>
       <c r="C30" s="42"/>
@@ -1375,7 +1401,7 @@
       <c r="F30" s="40"/>
       <c r="G30" s="41"/>
     </row>
-    <row r="31" spans="1:7" ht="15">
+    <row r="31" spans="1:7" ht="12.75">
       <c r="A31" s="41"/>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
@@ -1384,7 +1410,7 @@
       <c r="F31" s="40"/>
       <c r="G31" s="41"/>
     </row>
-    <row r="32" spans="1:7" ht="15">
+    <row r="32" spans="1:7" ht="12.75">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
@@ -1393,7 +1419,7 @@
       <c r="F32" s="40"/>
       <c r="G32" s="41"/>
     </row>
-    <row r="33" spans="1:7" ht="15">
+    <row r="33" spans="1:7" ht="12.75">
       <c r="A33" s="41"/>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
@@ -1402,7 +1428,7 @@
       <c r="F33" s="40"/>
       <c r="G33" s="41"/>
     </row>
-    <row r="34" spans="1:7" ht="15">
+    <row r="34" spans="1:7" ht="12.75">
       <c r="A34" s="41"/>
       <c r="B34" s="41"/>
       <c r="C34" s="42"/>
@@ -1411,7 +1437,7 @@
       <c r="F34" s="40"/>
       <c r="G34" s="41"/>
     </row>
-    <row r="35" spans="1:7" ht="15">
+    <row r="35" spans="1:7" ht="12.75">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="42"/>
@@ -1420,7 +1446,7 @@
       <c r="F35" s="40"/>
       <c r="G35" s="41"/>
     </row>
-    <row r="36" spans="1:7" ht="15">
+    <row r="36" spans="1:7" ht="12.75">
       <c r="A36" s="41"/>
       <c r="B36" s="41"/>
       <c r="C36" s="42"/>
@@ -1429,7 +1455,7 @@
       <c r="F36" s="40"/>
       <c r="G36" s="41"/>
     </row>
-    <row r="37" spans="1:7" ht="15">
+    <row r="37" spans="1:7" ht="12.75">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
@@ -1438,7 +1464,7 @@
       <c r="F37" s="40"/>
       <c r="G37" s="41"/>
     </row>
-    <row r="38" spans="1:7" ht="15">
+    <row r="38" spans="1:7" ht="12.75">
       <c r="A38" s="41"/>
       <c r="B38" s="41"/>
       <c r="C38" s="42"/>
@@ -1447,7 +1473,7 @@
       <c r="F38" s="40"/>
       <c r="G38" s="41"/>
     </row>
-    <row r="39" spans="1:7" ht="15" hidden="1">
+    <row r="39" spans="1:7" ht="12.75" hidden="1">
       <c r="A39" s="44"/>
       <c r="B39" s="44"/>
       <c r="C39" s="45"/>

--- a/1- PM/review tracker.xlsx
+++ b/1- PM/review tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\1- PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7822CF-68E4-42F4-910A-A4D3D3DD5AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999E8713-5CDF-4183-A56B-E482230D380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
-  <si>
-    <t>review TRACKER</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -188,6 +185,28 @@
   <si>
     <t>Change the prompt that appears to the user to 
 be an alert + handle the cancel button in the alert.</t>
+  </si>
+  <si>
+    <t>Review TRACKER</t>
+  </si>
+  <si>
+    <t>add the action that 'll be taken for the risks that affect the 
+the change that happened in the team in addition the the change that affected the code and the other documents.</t>
+  </si>
+  <si>
+    <t>salma + menna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Analysis </t>
+  </si>
+  <si>
+    <t>be more specific especially in duration timeline.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Plan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">process for Test cases + bug report </t>
   </si>
 </sst>
 </file>
@@ -425,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -548,22 +567,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -575,13 +579,59 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB6D7A8"/>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -629,6 +679,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -940,11 +995,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -968,31 +1023,31 @@
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="50"/>
+      <c r="B2" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="45"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>5</v>
       </c>
       <c r="G3" s="5"/>
     </row>
@@ -1008,16 +1063,16 @@
     <row r="5" spans="1:7" ht="1.5" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="F5" s="15">
         <v>44978</v>
@@ -1027,16 +1082,16 @@
     <row r="6" spans="1:7" ht="61.5" customHeight="1">
       <c r="A6" s="16"/>
       <c r="B6" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="20">
         <v>44978</v>
@@ -1046,16 +1101,16 @@
     <row r="7" spans="1:7" ht="61.5" customHeight="1">
       <c r="A7" s="22"/>
       <c r="B7" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="24">
         <v>44994</v>
@@ -1074,57 +1129,57 @@
     <row r="9" spans="1:7" ht="99" customHeight="1">
       <c r="A9" s="31"/>
       <c r="B9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="D9" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="E9" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="34" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>17</v>
       </c>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="51">
       <c r="A10" s="36"/>
       <c r="B10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="34" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>20</v>
       </c>
       <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:7" ht="38.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>22</v>
-      </c>
       <c r="E11" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="39"/>
     </row>
@@ -1140,35 +1195,35 @@
     <row r="13" spans="1:7" ht="40.5" customHeight="1">
       <c r="A13" s="32"/>
       <c r="B13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="D13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="E13" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="34" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="34" t="s">
-        <v>26</v>
       </c>
       <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:7" ht="65.25" customHeight="1">
       <c r="A14" s="32"/>
       <c r="B14" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="D14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>29</v>
-      </c>
       <c r="E14" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="39">
         <v>45111</v>
@@ -1178,16 +1233,16 @@
     <row r="15" spans="1:7" ht="42.75" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>31</v>
-      </c>
       <c r="D15" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F15" s="39">
         <v>45111</v>
@@ -1197,16 +1252,16 @@
     <row r="16" spans="1:7" ht="46.5" customHeight="1">
       <c r="A16" s="32"/>
       <c r="B16" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>33</v>
-      </c>
       <c r="D16" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" s="39">
         <v>45111</v>
@@ -1216,16 +1271,16 @@
     <row r="17" spans="1:7" ht="50.25" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="39">
         <v>45111</v>
@@ -1235,32 +1290,32 @@
     <row r="18" spans="1:7" ht="50.25" customHeight="1">
       <c r="A18" s="32"/>
       <c r="B18" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="39" t="s">
         <v>35</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>36</v>
       </c>
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="48.75" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>39</v>
-      </c>
       <c r="D19" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="32"/>
       <c r="F19" s="39">
@@ -1268,219 +1323,357 @@
       </c>
       <c r="G19" s="40"/>
     </row>
-    <row r="20" spans="1:7" ht="25.5">
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" s="32"/>
       <c r="B20" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>41</v>
-      </c>
       <c r="D20" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="32"/>
       <c r="F20" s="39">
         <v>45082</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="39"/>
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="32"/>
-      <c r="F21" s="39">
+      <c r="F21" s="47">
         <v>45082</v>
       </c>
-      <c r="G21" s="41"/>
-    </row>
-    <row r="22" spans="1:7" ht="12.75">
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="32"/>
       <c r="B22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="32"/>
+      <c r="F22" s="47">
+        <v>45082</v>
+      </c>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7" ht="38.25" customHeight="1">
+      <c r="A23" s="32"/>
+      <c r="B23" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="39">
-        <v>45082</v>
-      </c>
-      <c r="G22" s="41"/>
-    </row>
-    <row r="23" spans="1:7" ht="30">
-      <c r="A23" s="32"/>
-      <c r="B23" s="41" t="s">
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="52">
+      <c r="D23" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="47">
         <v>45058</v>
       </c>
-      <c r="G23" s="41"/>
-    </row>
-    <row r="24" spans="1:7" ht="12.75">
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7" ht="53.25" customHeight="1">
       <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-    </row>
-    <row r="25" spans="1:7" ht="12.75">
+      <c r="B24" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="47">
+        <v>45058</v>
+      </c>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7" ht="12.75">
+      <c r="B25" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="47">
+        <v>45058</v>
+      </c>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-    </row>
-    <row r="27" spans="1:7" ht="12.75">
+      <c r="B26" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="32"/>
+      <c r="F26" s="47">
+        <v>45058</v>
+      </c>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7" ht="15">
       <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" spans="1:7" ht="12.75">
+      <c r="B27" s="32"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-    </row>
-    <row r="29" spans="1:7" ht="12.75">
+      <c r="B28" s="32"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7" ht="15">
       <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
-    </row>
-    <row r="30" spans="1:7" ht="12.75">
+      <c r="B29" s="32"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-    </row>
-    <row r="31" spans="1:7" ht="12.75">
+      <c r="B30" s="32"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="1:7" ht="15">
       <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-    </row>
-    <row r="32" spans="1:7" ht="12.75">
+      <c r="B31" s="32"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="1:7" ht="15">
       <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-    </row>
-    <row r="33" spans="1:7" ht="12.75">
+      <c r="B32" s="32"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" spans="1:7" ht="15">
       <c r="A33" s="41"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
-    </row>
-    <row r="34" spans="1:7" ht="12.75">
+      <c r="B33" s="32"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="1:7" ht="15">
       <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="1:7" ht="12.75">
+      <c r="B34" s="32"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
-    </row>
-    <row r="36" spans="1:7" ht="12.75">
+      <c r="B35" s="32"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
-    </row>
-    <row r="37" spans="1:7" ht="12.75">
+      <c r="B36" s="32"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="32"/>
+    </row>
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="41"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41"/>
-    </row>
-    <row r="38" spans="1:7" ht="12.75">
+      <c r="B37" s="32"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="32"/>
+    </row>
+    <row r="38" spans="1:7" ht="15">
       <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41"/>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" hidden="1">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="44"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="1:7" ht="15" hidden="1">
+      <c r="A39" s="42"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="48"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1488,28 +1681,48 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:E39">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E39">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:G39">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>RegExMatch(($E5),"Done")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F39">
-    <cfRule type="timePeriod" dxfId="1" priority="4" timePeriod="today">
+  <conditionalFormatting sqref="G21:G26 F5:F39">
+    <cfRule type="timePeriod" dxfId="5" priority="8" timePeriod="today">
       <formula>FLOOR(F5,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F39">
-    <cfRule type="expression" dxfId="0" priority="5">
+  <conditionalFormatting sqref="G21:G26 F5:F39">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>AND($F5&lt;TODAY(), OR($E5="In progress", $E5="Not started"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="timePeriod" dxfId="3" priority="3" timePeriod="today">
+      <formula>FLOOR(G22,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>AND($F22&lt;TODAY(), OR($E22="In progress", $E22="Not started"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G28">
+    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="today">
+      <formula>FLOOR(G24,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G28">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND($F24&lt;TODAY(), OR($E24="In progress", $E24="Not started"))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1- PM/review tracker.xlsx
+++ b/1- PM/review tracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Car-Purchasing-App\1- PM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beshoy Sameh\Documents\GitHub\Car-Purchasing-App\1- PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999E8713-5CDF-4183-A56B-E482230D380A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DA7C56-9C89-47CD-8554-99C4763DCAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -571,27 +571,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,8 +998,8 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="2" spans="1:7" ht="44.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="45"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="29.25" customHeight="1">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" ht="12.75">
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" ht="51">
+    <row r="10" spans="1:7" ht="60">
       <c r="A10" s="36"/>
       <c r="B10" s="36" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G10" s="38"/>
     </row>
-    <row r="11" spans="1:7" ht="38.25">
+    <row r="11" spans="1:7" ht="45">
       <c r="A11" s="32"/>
       <c r="B11" s="32" t="s">
         <v>13</v>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:7" ht="12.75">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
@@ -1317,7 +1317,9 @@
       <c r="D19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="32" t="s">
+        <v>8</v>
+      </c>
       <c r="F19" s="39">
         <v>45082</v>
       </c>
@@ -1352,10 +1354,10 @@
         <v>28</v>
       </c>
       <c r="E21" s="32"/>
-      <c r="F21" s="47">
+      <c r="F21" s="44">
         <v>45082</v>
       </c>
-      <c r="G21" s="47"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="32"/>
@@ -1368,11 +1370,13 @@
       <c r="D22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="47">
+      <c r="E22" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="44">
         <v>45082</v>
       </c>
-      <c r="G22" s="47"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" spans="1:7" ht="38.25" customHeight="1">
       <c r="A23" s="32"/>
@@ -1388,10 +1392,10 @@
       <c r="E23" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="44">
         <v>45058</v>
       </c>
-      <c r="G23" s="47"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" spans="1:7" ht="53.25" customHeight="1">
       <c r="A24" s="41"/>
@@ -1407,10 +1411,10 @@
       <c r="E24" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="44">
         <v>45058</v>
       </c>
-      <c r="G24" s="47"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" spans="1:7" ht="15">
       <c r="A25" s="41"/>
@@ -1423,11 +1427,13 @@
       <c r="D25" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="47">
+      <c r="E25" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="44">
         <v>45058</v>
       </c>
-      <c r="G25" s="47"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" spans="1:7" ht="15">
       <c r="A26" s="41"/>
@@ -1440,8 +1446,10 @@
       <c r="D26" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="47">
+      <c r="E26" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="44">
         <v>45058</v>
       </c>
       <c r="G26" s="39"/>
@@ -1453,7 +1461,7 @@
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
       <c r="F27" s="39"/>
-      <c r="G27" s="47"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:7" ht="15">
       <c r="A28" s="41"/>
@@ -1462,7 +1470,7 @@
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="39"/>
-      <c r="G28" s="47"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="41"/>
@@ -1556,124 +1564,124 @@
     </row>
     <row r="39" spans="1:7" ht="15" hidden="1">
       <c r="A39" s="42"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="48"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="45"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B41" s="51"/>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B46" s="51"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="51"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="51"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="51"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B50" s="51"/>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="51"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="51"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
